--- a/base_tarefas.xlsx
+++ b/base_tarefas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Data_Criacao</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Responsavel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +483,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +503,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +523,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +543,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +563,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +583,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +603,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +623,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +643,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +663,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +683,7 @@
           <t>18/02/2026</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -685,6 +701,103 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>vagner</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>209</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bruno</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>45</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lua</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Daniel</t>
         </is>
       </c>
     </row>
